--- a/jhm4.xlsx
+++ b/jhm4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lll20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F8DAC-D3CD-4DB2-9ADD-9C3E3835237E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED819DC-9ACA-4ED3-82D7-4494750796CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2990" yWindow="0" windowWidth="19200" windowHeight="11170" xr2:uid="{585061FF-FC46-4EAE-9D14-73EDB8D06F05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{585061FF-FC46-4EAE-9D14-73EDB8D06F05}"/>
   </bookViews>
   <sheets>
     <sheet name="DSE(Original)" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="336">
   <si>
     <t>Column1</t>
   </si>
@@ -1052,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月:7月多了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AVG(DSE:Hong Kong)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,6 +1069,14 @@
   </si>
   <si>
     <t>8.觀察並記錄搜尋量最高的三個月份。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSE搜尋量呈現明顯的週期性，與考試週期高度相關，且整體關注度逐年上升。4月為核心高峰，7月次之，其他月份則維持較低水平。此趨勢可作為教育相關服務或資訊發布的時間參考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月比7月多了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1232,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1293,6 +1297,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8660,7 +8667,7 @@
   <autoFilter ref="F60:G66" xr:uid="{C293792C-1AB9-4BE4-949E-879E5D91891E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6750C5A6-1896-45DE-B77A-FF4A435CFC11}" name="Year" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{D0722EF6-9060-475D-9045-CD243194904A}" name="4月:7月多了" dataDxfId="18">
+    <tableColumn id="2" xr3:uid="{D0722EF6-9060-475D-9045-CD243194904A}" name="4月比7月多了" dataDxfId="18">
       <calculatedColumnFormula>IFERROR((SUMIFS(表格3[DSE: (Hong Kong)],表格3[Year],F61,表格3[Month],"=4")-SUMIFS(表格3[DSE: (Hong Kong)],表格3[Year],F61,表格3[Month],"=7")),"N/A")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9040,7 +9047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D45C0-8057-4C89-8880-AAF0713771FF}">
   <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -11183,8 +11190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BEDEFE-6894-49C1-87F3-02F5493ED4D1}">
   <dimension ref="A1:Q262"/>
   <sheetViews>
-    <sheetView zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="59" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -12093,7 +12100,7 @@
         <v>326</v>
       </c>
       <c r="H51" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
@@ -12308,7 +12315,7 @@
         <v>318</v>
       </c>
       <c r="G60" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -14559,7 +14566,7 @@
         <v>30</v>
       </c>
       <c r="H152" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
@@ -14583,7 +14590,7 @@
         <v>326</v>
       </c>
       <c r="G153" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I153" t="s">
         <v>326</v>
@@ -14947,7 +14954,7 @@
         <v>326</v>
       </c>
       <c r="H169" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
@@ -15218,7 +15225,7 @@
         <v>27</v>
       </c>
       <c r="F182" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
@@ -15383,7 +15390,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>236</v>
       </c>
@@ -15399,7 +15406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>237</v>
       </c>
@@ -15415,7 +15422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>238</v>
       </c>
@@ -15431,7 +15438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>239</v>
       </c>
@@ -15447,7 +15454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>240</v>
       </c>
@@ -15463,7 +15470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>242</v>
       </c>
@@ -15479,7 +15486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>244</v>
       </c>
@@ -15495,7 +15502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -15511,7 +15518,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>246</v>
       </c>
@@ -15527,7 +15534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>247</v>
       </c>
@@ -15543,7 +15550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>248</v>
       </c>
@@ -15559,7 +15566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>249</v>
       </c>
@@ -15574,8 +15581,19 @@
       <c r="D204" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F204" s="17"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
+      <c r="N204" s="17"/>
+      <c r="O204" s="17"/>
+      <c r="P204" s="17"/>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>250</v>
       </c>
@@ -15590,8 +15608,21 @@
       <c r="D205" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F205" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="G205" s="18"/>
+      <c r="H205" s="18"/>
+      <c r="I205" s="18"/>
+      <c r="J205" s="18"/>
+      <c r="K205" s="18"/>
+      <c r="L205" s="18"/>
+      <c r="M205" s="18"/>
+      <c r="N205" s="18"/>
+      <c r="O205" s="18"/>
+      <c r="P205" s="18"/>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>251</v>
       </c>
@@ -15606,8 +15637,19 @@
       <c r="D206" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F206" s="18"/>
+      <c r="G206" s="18"/>
+      <c r="H206" s="18"/>
+      <c r="I206" s="18"/>
+      <c r="J206" s="18"/>
+      <c r="K206" s="18"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="18"/>
+      <c r="N206" s="18"/>
+      <c r="O206" s="18"/>
+      <c r="P206" s="18"/>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>253</v>
       </c>
@@ -15623,7 +15665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>254</v>
       </c>
@@ -16504,15 +16546,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="F182:H182"/>
+    <mergeCell ref="H152:J152"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F204:P204"/>
+    <mergeCell ref="F205:P206"/>
     <mergeCell ref="F2:Q2"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="F74:H74"/>
     <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F182:H182"/>
-    <mergeCell ref="H152:J152"/>
-    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D15 D34:D40">

--- a/jhm4.xlsx
+++ b/jhm4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lll20\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED819DC-9ACA-4ED3-82D7-4494750796CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A279F97-5D6F-46E7-BA60-FC232A6C3702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{585061FF-FC46-4EAE-9D14-73EDB8D06F05}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="338">
   <si>
     <t>Column1</t>
   </si>
@@ -1076,7 +1076,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10.寫一個簡短總結，說明你觀察到的主要搜尋趨勢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>4月比7月多了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>季節性高峰：每年4月（DSE考試期間）的搜尋量明顯高於其他月份，顯示出強烈的季節性趨勢。例如，2023年4月的最高搜尋量達87，2024年4月達96，2025年4月達100，均為當年的峰值。
+7月也出現次高峰，可能與考試放榜或相關資訊查詢有關，但搜尋量普遍低於4月。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,6 +1309,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11190,8 +11202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BEDEFE-6894-49C1-87F3-02F5493ED4D1}">
   <dimension ref="A1:Q262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="59" zoomScaleNormal="54" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="D189" zoomScale="105" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="J198" sqref="J198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -12315,7 +12327,7 @@
         <v>318</v>
       </c>
       <c r="G60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
@@ -15581,7 +15593,9 @@
       <c r="D204" s="4">
         <v>35</v>
       </c>
-      <c r="F204" s="17"/>
+      <c r="F204" s="17" t="s">
+        <v>335</v>
+      </c>
       <c r="G204" s="17"/>
       <c r="H204" s="17"/>
       <c r="I204" s="17"/>
@@ -15664,6 +15678,19 @@
       <c r="D207" s="4">
         <v>44</v>
       </c>
+      <c r="F207" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
+      <c r="K207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="19"/>
+      <c r="N207" s="19"/>
+      <c r="O207" s="19"/>
+      <c r="P207" s="19"/>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
@@ -15680,8 +15707,19 @@
       <c r="D208" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
+      <c r="K208" s="19"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="19"/>
+      <c r="N208" s="19"/>
+      <c r="O208" s="19"/>
+      <c r="P208" s="19"/>
+    </row>
+    <row r="209" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>255</v>
       </c>
@@ -15696,8 +15734,19 @@
       <c r="D209" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
+      <c r="P209" s="19"/>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>256</v>
       </c>
@@ -15712,8 +15761,19 @@
       <c r="D210" s="9">
         <v>96</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="19"/>
+      <c r="N210" s="19"/>
+      <c r="O210" s="19"/>
+      <c r="P210" s="19"/>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>258</v>
       </c>
@@ -15729,7 +15789,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>259</v>
       </c>
@@ -15745,7 +15805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>261</v>
       </c>
@@ -15761,7 +15821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>262</v>
       </c>
@@ -15777,7 +15837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>263</v>
       </c>
@@ -15793,7 +15853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>264</v>
       </c>
@@ -15809,7 +15869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>265</v>
       </c>
@@ -15825,7 +15885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>266</v>
       </c>
@@ -15841,7 +15901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -15857,7 +15917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>268</v>
       </c>
@@ -15873,7 +15933,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>269</v>
       </c>
@@ -15889,7 +15949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>270</v>
       </c>
@@ -15905,7 +15965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>271</v>
       </c>
@@ -15921,7 +15981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>272</v>
       </c>
@@ -16546,7 +16606,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="F207:P210"/>
     <mergeCell ref="F182:H182"/>
     <mergeCell ref="H152:J152"/>
     <mergeCell ref="F34:G34"/>
